--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y153"/>
+  <dimension ref="A1:Y157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="R152" s="2" t="inlineStr"/>
     </row>
-    <row r="153">
+    <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
           <t>A 38742-2023</t>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9759,6 +9759,254 @@
         <v>0</v>
       </c>
       <c r="R153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A 42802-2023</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>A 42803-2023</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A 42801-2023</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A 42804-2023</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 60085-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 60085-2021.xlsx", "A 60085-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 60085-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 60085-2021.png", "A 60085-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 60085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 60085-2021.docx", "A 60085-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 60085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 60085-2021.docx", "A 60085-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 60085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 60085-2021.docx", "A 60085-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 60085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 60085-2021.docx", "A 60085-2021")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 61334-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 61334-2020.xlsx", "A 61334-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 61334-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 61334-2020.png", "A 61334-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 61334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 61334-2020.docx", "A 61334-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 61334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 61334-2020.docx", "A 61334-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 61334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 61334-2020.docx", "A 61334-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 61334-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 61334-2020.docx", "A 61334-2020")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,27 +807,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 58022-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 58022-2020.xlsx", "A 58022-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 58022-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 58022-2020.png", "A 58022-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 58022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 58022-2020.docx", "A 58022-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 58022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 58022-2020.docx", "A 58022-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 58022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 58022-2020.docx", "A 58022-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 58022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 58022-2020.docx", "A 58022-2020")</f>
         <v/>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 27721-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 27721-2021.xlsx", "A 27721-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 27721-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 27721-2021.png", "A 27721-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 27721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 27721-2021.docx", "A 27721-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 27721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 27721-2021.docx", "A 27721-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 27721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 27721-2021.docx", "A 27721-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 27721-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 27721-2021.docx", "A 27721-2021")</f>
         <v/>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,27 +987,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 32269-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/artfynd/A 32269-2022.xlsx", "A 32269-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 32269-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/kartor/A 32269-2022.png", "A 32269-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 32269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomål/A 32269-2022.docx", "A 32269-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 32269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/klagomålsmail/A 32269-2022.docx", "A 32269-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 32269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsyn/A 32269-2022.docx", "A 32269-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 32269-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KARLSKOGA/tillsynsmail/A 32269-2022.docx", "A 32269-2022")</f>
         <v/>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y157"/>
+  <dimension ref="A1:Y158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="R156" s="2" t="inlineStr"/>
     </row>
-    <row r="157">
+    <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
           <t>A 42804-2023</t>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10007,6 +10007,68 @@
         <v>0</v>
       </c>
       <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 44224-2023</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>KARLSKOGA</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt KARLSKOGA.xlsx
+++ b/Översikt KARLSKOGA.xlsx
@@ -572,7 +572,7 @@
         <v>44495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44155</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44781</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43339</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43356</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>43423</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43452</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>43479</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43480</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>43559</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>43566</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43572</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43587</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43598</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43601</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43647</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43647</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43676</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43682</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43690</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>43691</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>43691</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43712</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>43747</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>43754</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43754</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43754</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43754</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43754</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43755</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43788</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43788</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43839</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43857</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43865</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43865</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43881</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43912</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43912</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43912</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43917</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43917</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43917</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43957</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43957</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43992</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44012</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44012</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44061</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44067</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>44084</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44085</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44090</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44090</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44097</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>44126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>44139</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44139</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>44139</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44139</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>44140</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44140</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44140</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44140</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44140</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44141</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44144</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44144</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44159</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44159</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44230</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44243</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>44245</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>44245</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44319</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44322</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>44327</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44327</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>44340</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44347</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44381</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44381</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>44438</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>44439</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44452</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44452</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44452</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44453</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44453</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44480</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44483</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44508</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44510</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44546</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44588</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44590</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44628</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44768</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>44818</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>44846</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8389,7 +8389,7 @@
         <v>44858</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44890</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44895</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44900</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44942</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45033</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45035</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>45079</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45128</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45155</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45161</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>45182</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45188</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
